--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2129131.13842068</v>
+        <v>2127243.556904277</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634752.0704929867</v>
+        <v>197404.0552118475</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>42.70741268739446</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +713,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>359.3274699213446</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210773</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>7.270565549321421</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>136.5863391281595</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>236.0502377560821</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.06378739764988</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>19.83441263374738</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>88.09847704188321</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.84984876650208</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>5.562624396424664</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>121.1574120233344</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>127.4321567831317</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>54.40320730981925</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>76.5910067891963</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>99.86151158594825</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>136.331121828725</v>
       </c>
     </row>
     <row r="23">
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>113.1999233045083</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>235.2003280389335</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>52.23251667207935</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>265.1282085315758</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896555</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801216</v>
+        <v>43.21861285488932</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437423</v>
+        <v>90.21779139437439</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523576</v>
+        <v>54.76109577523592</v>
       </c>
       <c r="S31" t="n">
-        <v>21.61137591104618</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857281</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3554,7 +3554,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
         <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>803.4111058960625</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="C2" t="n">
-        <v>803.4111058960625</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D2" t="n">
-        <v>445.145407289312</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>445.145407289312</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>438.1999065401085</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>424.2765024786995</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>97.0817825147023</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,10 +4346,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834949</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.010945960184</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="Y2" t="n">
-        <v>1190.010945960184</v>
+        <v>1299.526533804879</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4413,37 +4413,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>975.0839883974845</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>616.8182897907341</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>616.8182897907341</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>609.8727890415306</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>191.9089809397175</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2403.685817956713</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.685817956713</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.685817956713</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.546485980902</v>
+        <v>1344.046505337896</v>
       </c>
     </row>
     <row r="6">
@@ -4659,16 +4659,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326646</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>156.7517573047577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2323.103882821189</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2675.872538091303</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2675.872538091303</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2675.872538091303</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2675.872538091303</v>
+        <v>2458.479663754177</v>
       </c>
       <c r="V8" t="n">
-        <v>2675.872538091303</v>
+        <v>2458.479663754177</v>
       </c>
       <c r="W8" t="n">
-        <v>2323.103882821189</v>
+        <v>2105.711008484063</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.103882821189</v>
+        <v>1732.245250222983</v>
       </c>
       <c r="Y8" t="n">
-        <v>2323.103882821189</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,67 +5024,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>2056.693778606512</v>
+        <v>1218.836734765611</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799367</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609671</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550802</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3177283550802</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X13" t="n">
-        <v>503.3281774570629</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="Y13" t="n">
-        <v>282.5355983135328</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5300,28 +5300,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047986</v>
+        <v>590.3623147489081</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="M15" t="n">
-        <v>1890.372576454149</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1376.535046291908</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1376.535046291908</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U16" t="n">
-        <v>1087.406407505466</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="V16" t="n">
-        <v>1087.406407505466</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>797.9892374685055</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>797.9892374685055</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>577.1966583249754</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028589</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L18" t="n">
-        <v>381.3300194168664</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="M18" t="n">
-        <v>1149.698165809328</v>
+        <v>1157.264000062947</v>
       </c>
       <c r="N18" t="n">
-        <v>1954.109744073479</v>
+        <v>1961.675578327098</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2210.42899241106</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.2236783705321</v>
+        <v>152.169826116669</v>
       </c>
       <c r="C19" t="n">
-        <v>394.2236783705321</v>
+        <v>152.169826116669</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581963</v>
+        <v>152.169826116669</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581963</v>
+        <v>152.169826116669</v>
       </c>
       <c r="F19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>1132.42297844904</v>
+        <v>844.0280401273994</v>
       </c>
       <c r="W19" t="n">
-        <v>843.0058084120795</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X19" t="n">
-        <v>615.0162575140622</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="Y19" t="n">
-        <v>394.2236783705321</v>
+        <v>333.8182909469086</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,55 +5747,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028589</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028589</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M21" t="n">
-        <v>323.6581146605665</v>
+        <v>970.0833206816483</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924717</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>414.066367970586</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1398.046056834722</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1174.260641624228</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>885.1320028377864</v>
+        <v>874.9271131227922</v>
       </c>
       <c r="V22" t="n">
-        <v>885.1320028377864</v>
+        <v>874.9271131227922</v>
       </c>
       <c r="W22" t="n">
-        <v>595.7148328008258</v>
+        <v>585.5099430858315</v>
       </c>
       <c r="X22" t="n">
-        <v>595.7148328008258</v>
+        <v>585.5099430858315</v>
       </c>
       <c r="Y22" t="n">
-        <v>595.7148328008258</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823791</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028589</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028589</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605665</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924717</v>
+        <v>1862.817363967</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>582.2416896507652</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>413.3055067228584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1384.572913684662</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T25" t="n">
-        <v>1160.787498474168</v>
+        <v>1164.055751909235</v>
       </c>
       <c r="U25" t="n">
-        <v>871.6588596877259</v>
+        <v>1164.055751909235</v>
       </c>
       <c r="V25" t="n">
-        <v>871.6588596877259</v>
+        <v>926.4796629810189</v>
       </c>
       <c r="W25" t="n">
-        <v>582.2416896507652</v>
+        <v>637.0624929440585</v>
       </c>
       <c r="X25" t="n">
-        <v>582.2416896507652</v>
+        <v>637.0624929440585</v>
       </c>
       <c r="Y25" t="n">
-        <v>582.2416896507652</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>352.8380350170344</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605665</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N27" t="n">
-        <v>1128.069692924717</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>714.6010158349784</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C28" t="n">
-        <v>545.6648329070715</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947358</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799367</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1446.156152707318</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1246.23614262287</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1022.450727412376</v>
       </c>
       <c r="U28" t="n">
-        <v>896.249480665218</v>
+        <v>1022.450727412376</v>
       </c>
       <c r="V28" t="n">
-        <v>896.249480665218</v>
+        <v>1022.450727412376</v>
       </c>
       <c r="W28" t="n">
-        <v>896.249480665218</v>
+        <v>1022.450727412376</v>
       </c>
       <c r="X28" t="n">
-        <v>896.249480665218</v>
+        <v>794.4611765143591</v>
       </c>
       <c r="Y28" t="n">
-        <v>896.249480665218</v>
+        <v>573.6685973708289</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
@@ -6543,22 +6543,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605665</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924717</v>
+        <v>1961.218619068865</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2209.972033152827</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2392.615510766178</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>561.8619021198746</v>
+        <v>439.5324299542153</v>
       </c>
       <c r="C31" t="n">
-        <v>448.6865844733384</v>
+        <v>326.357112307679</v>
       </c>
       <c r="D31" t="n">
-        <v>448.6865844733384</v>
+        <v>232.0013381767138</v>
       </c>
       <c r="E31" t="n">
-        <v>356.534356172316</v>
+        <v>188.3461736768256</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557764</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933498</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667504</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1858.98215226185</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1690.957602332726</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1457.589828827656</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1258.66620590314</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>1025.009901147549</v>
+        <v>902.6804289818909</v>
       </c>
       <c r="X31" t="n">
-        <v>852.7812155309028</v>
+        <v>730.4517433652441</v>
       </c>
       <c r="Y31" t="n">
-        <v>687.7495016687435</v>
+        <v>565.4200295030845</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229682</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,10 +6871,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
@@ -6883,25 +6883,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045216</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010326</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,61 +6926,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>323.6581146605672</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>323.6581146605672</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605672</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7102,7 +7102,7 @@
         <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7169,37 +7169,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>1303.849659022847</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525405</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254963</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649698</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7494,22 +7494,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>987.4051452743433</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,7 +7570,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>1033.449232197401</v>
       </c>
       <c r="M45" t="n">
-        <v>1890.372576454149</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7819,37 +7819,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,10 +8784,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,19 +9012,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,13 +9258,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>370.862340184928</v>
+        <v>277.0952454438732</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>370.862340184928</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9957,10 +9957,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>370.862340184928</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849281</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>198.568530941954</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11385,16 +11385,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>144.9821314154352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.0220289556701</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>76.76339796026885</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>124.7054865406963</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>91.01784071311202</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>175.5466365346317</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>98.05929839765503</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>82.25353152336983</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>84.72088667909493</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>16.93731528489451</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.4192454642719</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.73183573171337</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>21.10914386700155</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965534</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>48.012093163123</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897911</v>
+        <v>93.71057173897927</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571512</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>121.106177444</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-9.825473895618394e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229599</v>
       </c>
     </row>
     <row r="11">
@@ -26314,46 +26314,46 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="J2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="K2" t="n">
-        <v>528868.7785488509</v>
+        <v>528868.7785488508</v>
       </c>
       <c r="L2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="M2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="N2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="O2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.546973009186703e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284543</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086706</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284558</v>
+        <v>44162.60530284546</v>
       </c>
     </row>
     <row r="4">
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758288</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905757998</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758024</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905757997</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758437</v>
+        <v>787.7936905758822</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477239</v>
+        <v>18952.41620477233</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189629</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
@@ -26467,43 +26467,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.946046789</v>
+        <v>-278208.9460467889</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.9331677557</v>
+        <v>311758.9331677558</v>
       </c>
       <c r="D6" t="n">
-        <v>311758.9331677563</v>
+        <v>311758.9331677559</v>
       </c>
       <c r="E6" t="n">
-        <v>-109597.3784571677</v>
+        <v>-109694.8375831392</v>
       </c>
       <c r="F6" t="n">
-        <v>415562.6580197294</v>
+        <v>415465.1988937569</v>
       </c>
       <c r="G6" t="n">
-        <v>415562.6580197291</v>
+        <v>415465.1988937567</v>
       </c>
       <c r="H6" t="n">
-        <v>415562.6580197292</v>
+        <v>415465.1988937569</v>
       </c>
       <c r="I6" t="n">
-        <v>415562.6580197291</v>
+        <v>415465.1988937567</v>
       </c>
       <c r="J6" t="n">
-        <v>239139.4388271362</v>
+        <v>239041.9797011641</v>
       </c>
       <c r="K6" t="n">
-        <v>369125.5485110101</v>
+        <v>369107.054773076</v>
       </c>
       <c r="L6" t="n">
-        <v>402412.5568589958</v>
+        <v>402412.5568589957</v>
       </c>
       <c r="M6" t="n">
-        <v>277954.4484260255</v>
+        <v>277954.4484260256</v>
       </c>
       <c r="N6" t="n">
-        <v>412755.463659863</v>
+        <v>412755.4636598628</v>
       </c>
       <c r="O6" t="n">
-        <v>412755.4636598627</v>
+        <v>412755.4636598626</v>
       </c>
       <c r="P6" t="n">
-        <v>368592.8583570171</v>
+        <v>368592.8583570173</v>
       </c>
     </row>
   </sheetData>
@@ -26704,16 +26704,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>3.183716261483379e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964068</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
@@ -26768,10 +26768,10 @@
         <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26926,19 +26926,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.183716261483379e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855679</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108361</v>
+        <v>12.92863350108383</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.183716261483379e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855679</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>109.2239035574668</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>10.40363075712446</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.3731647155137</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>211.3140878027734</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>187.3364336361977</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>91.70202071405282</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>46.83478528866308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>33.41461517716183</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>231.3897548745419</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>136.9366284162011</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855685</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.220737668510449e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,22 +31118,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>160.6967431133295</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31379,13 +31379,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>177.5954266578332</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31616,25 +31616,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392718</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>450.4683412620575</v>
       </c>
       <c r="N12" t="n">
-        <v>224.6051223555639</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>203.5014758367905</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>392.6063366508801</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>54.69678998811253</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724847</v>
@@ -32327,16 +32327,16 @@
         <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>232.8293286381081</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32473,7 +32473,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041481</v>
       </c>
       <c r="L20" t="n">
         <v>526.7962671304441</v>
@@ -32555,7 +32555,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -32564,13 +32564,13 @@
         <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32789,7 +32789,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -32801,10 +32801,10 @@
         <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>23.85840434223292</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32947,7 +32947,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L26" t="n">
         <v>526.7962671304441</v>
@@ -33029,19 +33029,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>25.91700776606001</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710957</v>
@@ -33199,10 +33199,10 @@
         <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946974</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
@@ -33266,7 +33266,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -33275,13 +33275,13 @@
         <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>152.4580040397281</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33427,7 +33427,7 @@
         <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565502</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927187</v>
@@ -33500,28 +33500,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>183.8504064050093</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304423</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -33746,25 +33746,25 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>199.202266429772</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,40 +33886,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961188</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,34 +33968,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>275.1516952282531</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.0697047810465</v>
@@ -34214,13 +34214,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>83.85199691801347</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34232,7 +34232,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>130.3611756281722</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>392.9827086369145</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>428.8615014901183</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004665</v>
+        <v>774.0393710900391</v>
       </c>
       <c r="N12" t="n">
-        <v>572.6057846157842</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>330.1252738750101</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>740.6069989111003</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>286.9827555116975</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
@@ -35975,10 +35975,10 @@
         <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>417.317689863715</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303323</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109073</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>228.7283062629097</v>
+        <v>134.9612115218548</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>10.73738595686866</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>228.7283062629097</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>275.124479174518</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556562</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
@@ -36528,10 +36528,10 @@
         <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187477</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109073</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>258.202973289645</v>
       </c>
       <c r="M27" t="n">
-        <v>228.7283062629097</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187477</v>
@@ -36847,10 +36847,10 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349813</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629098</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>222.5535176895557</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686866</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412256</v>
+        <v>67.7110267941224</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584674</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084854</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043179</v>
+        <v>94.42895660043163</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
         <v>803.580930408112</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>531.8510686652295</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
@@ -37242,10 +37242,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>60.72709196759495</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>450.468341262057</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>598.7227250562347</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>316.1379624415985</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>362.6471411517572</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111005</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
